--- a/br_serie_a_analise_gols_arquivo_de_saida.xlsx
+++ b/br_serie_a_analise_gols_arquivo_de_saida.xlsx
@@ -574,31 +574,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I3" t="n">
         <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K3" t="n">
         <v>22</v>
@@ -607,16 +607,16 @@
         <v>1.692307692307692</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>1.538461538461539</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="O3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.615384615384615</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -678,31 +678,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>1.307692307692308</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>1.423076923076923</v>
+        <v>1.407407407407407</v>
       </c>
       <c r="K5" t="n">
         <v>7</v>
@@ -711,16 +711,16 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>1.538461538461539</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="O5" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.038461538461539</v>
+        <v>1.148148148148148</v>
       </c>
     </row>
     <row r="6">
@@ -730,31 +730,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>1.615384615384615</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="I6" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="n">
-        <v>1.730769230769231</v>
+        <v>1.703703703703704</v>
       </c>
       <c r="K6" t="n">
         <v>10</v>
@@ -766,13 +766,13 @@
         <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>1.153846153846154</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="O6" t="n">
         <v>25</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="7">
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -855,16 +855,16 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="K8" t="n">
         <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="M8" t="n">
         <v>21</v>
@@ -876,7 +876,7 @@
         <v>33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.269230769230769</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="9">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.44</v>
       </c>
       <c r="G11" t="n">
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>1.090909090909091</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.92</v>
       </c>
       <c r="K11" t="n">
         <v>16</v>
@@ -1023,16 +1023,16 @@
         <v>1.230769230769231</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N11" t="n">
-        <v>1.727272727272727</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="O11" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.458333333333333</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="12">
@@ -1042,19 +1042,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
         <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G12" t="n">
         <v>13</v>
@@ -1063,16 +1063,16 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>1.076923076923077</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="K12" t="n">
         <v>19</v>
       </c>
       <c r="L12" t="n">
-        <v>1.461538461538461</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="M12" t="n">
         <v>20</v>
@@ -1084,7 +1084,7 @@
         <v>39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.444444444444444</v>
       </c>
     </row>
     <row r="13">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
         <v>13</v>
@@ -1158,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -1170,13 +1170,13 @@
         <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>0.84</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="M14" t="n">
         <v>17</v>
@@ -1185,10 +1185,10 @@
         <v>1.307692307692308</v>
       </c>
       <c r="O14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.12</v>
+        <v>1.115384615384615</v>
       </c>
     </row>
     <row r="15">
@@ -1198,19 +1198,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
         <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -1219,16 +1219,16 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="I15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>1.230769230769231</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="M15" t="n">
         <v>19</v>
@@ -1237,10 +1237,10 @@
         <v>1.461538461538461</v>
       </c>
       <c r="O15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="16">
@@ -1302,19 +1302,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
@@ -1323,16 +1323,16 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
-        <v>1.043478260869565</v>
+        <v>1.125</v>
       </c>
       <c r="K17" t="n">
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="M17" t="n">
         <v>9</v>
@@ -1344,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="18">
@@ -1354,31 +1354,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="G18" t="n">
         <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I18" t="n">
         <v>31</v>
       </c>
       <c r="J18" t="n">
-        <v>1.192307692307692</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="K18" t="n">
         <v>12</v>
@@ -1387,16 +1387,16 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="M18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>1.846153846153846</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="O18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.384615384615385</v>
+        <v>1.37037037037037</v>
       </c>
     </row>
     <row r="19">

--- a/br_serie_a_analise_gols_arquivo_de_saida.xlsx
+++ b/br_serie_a_analise_gols_arquivo_de_saida.xlsx
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I2" t="n">
         <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>1.125</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
         <v>15</v>
@@ -558,13 +558,13 @@
         <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.166666666666667</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="O2" t="n">
         <v>29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.208333333333333</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="3">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.76</v>
       </c>
       <c r="G4" t="n">
         <v>16</v>
@@ -647,16 +647,16 @@
         <v>1.333333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>1.333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="K4" t="n">
         <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>1.416666666666667</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="M4" t="n">
         <v>19</v>
@@ -668,7 +668,7 @@
         <v>36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
@@ -782,31 +782,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>0.72</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G7" t="n">
         <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I7" t="n">
         <v>31</v>
       </c>
       <c r="J7" t="n">
-        <v>1.24</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="K7" t="n">
         <v>13</v>
@@ -815,16 +815,16 @@
         <v>1.083333333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N7" t="n">
-        <v>1.461538461538461</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="O7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.28</v>
+        <v>1.346153846153846</v>
       </c>
     </row>
     <row r="8">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>12</v>
@@ -898,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.68</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G9" t="n">
         <v>15</v>
@@ -910,13 +910,13 @@
         <v>32</v>
       </c>
       <c r="J9" t="n">
-        <v>1.28</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="K9" t="n">
         <v>18</v>
       </c>
       <c r="L9" t="n">
-        <v>1.384615384615385</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="M9" t="n">
         <v>22</v>
@@ -928,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="10">
@@ -938,31 +938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I10" t="n">
         <v>34</v>
       </c>
       <c r="J10" t="n">
-        <v>1.307692307692308</v>
+        <v>1.259259259259259</v>
       </c>
       <c r="K10" t="n">
         <v>9</v>
@@ -974,13 +974,13 @@
         <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>1.384615384615385</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="O10" t="n">
         <v>27</v>
       </c>
       <c r="P10" t="n">
-        <v>1.038461538461539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
         <v>12</v>
@@ -1002,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.44</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G11" t="n">
         <v>12</v>
@@ -1014,13 +1014,13 @@
         <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>0.92</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="K11" t="n">
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>1.230769230769231</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="M11" t="n">
         <v>22</v>
@@ -1032,7 +1032,7 @@
         <v>38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>1.461538461538461</v>
       </c>
     </row>
     <row r="12">
@@ -1094,31 +1094,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
-        <v>1.666666666666667</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="I13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J13" t="n">
-        <v>1.6</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="K13" t="n">
         <v>13</v>
@@ -1127,16 +1127,16 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
-        <v>1.333333333333333</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="O13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.16</v>
+        <v>1.230769230769231</v>
       </c>
     </row>
     <row r="14">
@@ -1250,19 +1250,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
         <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G16" t="n">
         <v>13</v>
@@ -1271,16 +1271,16 @@
         <v>1.083333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J16" t="n">
-        <v>1.041666666666667</v>
+        <v>1.12</v>
       </c>
       <c r="K16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L16" t="n">
-        <v>1.166666666666667</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="M16" t="n">
         <v>16</v>
@@ -1289,10 +1289,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="O16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="17">
@@ -1302,31 +1302,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.68</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>1.125</v>
+        <v>1.2</v>
       </c>
       <c r="K17" t="n">
         <v>11</v>
@@ -1335,16 +1335,16 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="M17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="18">
@@ -1406,31 +1406,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
         <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>1.076923076923077</v>
+        <v>1.037037037037037</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>1.25</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="I19" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19" t="n">
-        <v>1.653846153846154</v>
+        <v>1.62962962962963</v>
       </c>
       <c r="K19" t="n">
         <v>9</v>
@@ -1442,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O19" t="n">
         <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="20">
@@ -1458,19 +1458,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
         <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
@@ -1479,16 +1479,16 @@
         <v>1.153846153846154</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>1.307692307692308</v>
+        <v>1.296296296296296</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M20" t="n">
         <v>17</v>
@@ -1497,10 +1497,10 @@
         <v>1.307692307692308</v>
       </c>
       <c r="O20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>1.074074074074074</v>
       </c>
     </row>
     <row r="21">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
         <v>13</v>
@@ -1522,7 +1522,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G21" t="n">
         <v>10</v>
@@ -1534,13 +1534,13 @@
         <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>1.2</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="K21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L21" t="n">
-        <v>1.416666666666667</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="M21" t="n">
         <v>18</v>
@@ -1549,10 +1549,10 @@
         <v>1.384615384615385</v>
       </c>
       <c r="O21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.384615384615385</v>
       </c>
     </row>
   </sheetData>

--- a/br_serie_a_analise_gols_arquivo_de_saida.xlsx
+++ b/br_serie_a_analise_gols_arquivo_de_saida.xlsx
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I2" t="n">
         <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.038461538461539</v>
       </c>
       <c r="K2" t="n">
         <v>15</v>
@@ -555,16 +555,16 @@
         <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>1.076923076923077</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>1.16</v>
+        <v>1.153846153846154</v>
       </c>
     </row>
     <row r="3">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -595,16 +595,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K3" t="n">
         <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>1.692307692307692</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="M3" t="n">
         <v>23</v>
@@ -616,7 +616,7 @@
         <v>45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.666666666666667</v>
+        <v>1.607142857142857</v>
       </c>
     </row>
     <row r="4">
@@ -626,31 +626,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>0.76</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>1.333333333333333</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="K4" t="n">
         <v>17</v>
@@ -659,16 +659,16 @@
         <v>1.307692307692308</v>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N4" t="n">
-        <v>1.583333333333333</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="O4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.461538461538461</v>
       </c>
     </row>
     <row r="5">
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="G5" t="n">
         <v>18</v>
@@ -699,16 +699,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="I5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>1.407407407407407</v>
+        <v>1.392857142857143</v>
       </c>
       <c r="K5" t="n">
         <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="n">
         <v>24</v>
@@ -720,7 +720,7 @@
         <v>31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.148148148148148</v>
+        <v>1.107142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G6" t="n">
         <v>22</v>
@@ -754,13 +754,13 @@
         <v>46</v>
       </c>
       <c r="J6" t="n">
-        <v>1.703703703703704</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="K6" t="n">
         <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M6" t="n">
         <v>15</v>
@@ -772,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="7">
@@ -782,49 +782,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J7" t="n">
-        <v>1.192307692307692</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.083333333333333</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="M7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>1.571428571428571</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="O7" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.346153846153846</v>
+        <v>1.357142857142857</v>
       </c>
     </row>
     <row r="8">
@@ -834,31 +834,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="K8" t="n">
         <v>12</v>
@@ -867,16 +867,16 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="M8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.222222222222222</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="9">
@@ -886,31 +886,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>1.25</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>1.230769230769231</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="K9" t="n">
         <v>18</v>
@@ -919,16 +919,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="M9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N9" t="n">
-        <v>1.833333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="O9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.538461538461539</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
@@ -938,19 +938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
@@ -959,16 +959,16 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>1.259259259259259</v>
+        <v>1.25</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M10" t="n">
         <v>18</v>
@@ -977,7 +977,7 @@
         <v>1.285714285714286</v>
       </c>
       <c r="O10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="G11" t="n">
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I11" t="n">
         <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="K11" t="n">
         <v>16</v>
@@ -1023,16 +1023,16 @@
         <v>1.142857142857143</v>
       </c>
       <c r="M11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" t="n">
-        <v>1.833333333333333</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="O11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.461538461538461</v>
+        <v>1.444444444444444</v>
       </c>
     </row>
     <row r="12">
@@ -1042,31 +1042,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>1.074074074074074</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="K12" t="n">
         <v>19</v>
@@ -1075,16 +1075,16 @@
         <v>1.357142857142857</v>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N12" t="n">
-        <v>1.538461538461539</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="O12" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.444444444444444</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -1094,19 +1094,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G13" t="n">
         <v>22</v>
@@ -1115,16 +1115,16 @@
         <v>1.692307692307692</v>
       </c>
       <c r="I13" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" t="n">
-        <v>1.615384615384615</v>
+        <v>1.592592592592593</v>
       </c>
       <c r="K13" t="n">
         <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M13" t="n">
         <v>19</v>
@@ -1136,7 +1136,7 @@
         <v>32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.230769230769231</v>
+        <v>1.185185185185185</v>
       </c>
     </row>
     <row r="14">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I14" t="n">
         <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K14" t="n">
         <v>12</v>
@@ -1179,16 +1179,16 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>1.307692307692308</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="O14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P14" t="n">
-        <v>1.115384615384615</v>
+        <v>1.111111111111111</v>
       </c>
     </row>
     <row r="15">
@@ -1198,19 +1198,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -1219,16 +1219,16 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>1.333333333333333</v>
+        <v>1.321428571428571</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="M15" t="n">
         <v>19</v>
@@ -1240,7 +1240,7 @@
         <v>26</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="16">
@@ -1250,49 +1250,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G16" t="n">
         <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>1.083333333333333</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" t="n">
-        <v>1.12</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="K16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L16" t="n">
-        <v>1.230769230769231</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="M16" t="n">
         <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>1.333333333333333</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="O16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.28</v>
+        <v>1.259259259259259</v>
       </c>
     </row>
     <row r="17">
@@ -1302,49 +1302,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
+        <v>13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="I17" t="n">
+        <v>35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.296296296296296</v>
+      </c>
+      <c r="K17" t="n">
         <v>12</v>
       </c>
-      <c r="D17" t="n">
-        <v>13</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11</v>
-      </c>
       <c r="L17" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P17" t="n">
-        <v>0.84</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="18">
@@ -1354,19 +1354,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="G18" t="n">
         <v>11</v>
@@ -1375,16 +1375,16 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="I18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J18" t="n">
-        <v>1.148148148148148</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="K18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M18" t="n">
         <v>25</v>
@@ -1393,10 +1393,10 @@
         <v>1.785714285714286</v>
       </c>
       <c r="O18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.37037037037037</v>
+        <v>1.357142857142857</v>
       </c>
     </row>
     <row r="19">
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
         <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>1.037037037037037</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="G19" t="n">
         <v>16</v>
@@ -1427,16 +1427,16 @@
         <v>1.230769230769231</v>
       </c>
       <c r="I19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J19" t="n">
-        <v>1.62962962962963</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19" t="n">
         <v>10</v>
@@ -1445,10 +1445,10 @@
         <v>0.7692307692307693</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="20">
@@ -1458,19 +1458,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
         <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
@@ -1479,16 +1479,16 @@
         <v>1.153846153846154</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>1.296296296296296</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="K20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="M20" t="n">
         <v>17</v>
@@ -1497,10 +1497,10 @@
         <v>1.307692307692308</v>
       </c>
       <c r="O20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P20" t="n">
-        <v>1.074074074074074</v>
+        <v>1.071428571428571</v>
       </c>
     </row>
     <row r="21">
@@ -1510,31 +1510,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
         <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J21" t="n">
-        <v>1.153846153846154</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="K21" t="n">
         <v>18</v>
@@ -1543,16 +1543,16 @@
         <v>1.384615384615385</v>
       </c>
       <c r="M21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N21" t="n">
-        <v>1.384615384615385</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="O21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.384615384615385</v>
+        <v>1.37037037037037</v>
       </c>
     </row>
   </sheetData>

--- a/br_serie_a_analise_gols_arquivo_de_saida.xlsx
+++ b/br_serie_a_analise_gols_arquivo_de_saida.xlsx
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
         <v>14</v>
@@ -534,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
@@ -546,13 +546,13 @@
         <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>1.038461538461539</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="M2" t="n">
         <v>15</v>
@@ -561,10 +561,10 @@
         <v>1.071428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.153846153846154</v>
+        <v>1.148148148148148</v>
       </c>
     </row>
     <row r="3">
@@ -574,31 +574,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I3" t="n">
         <v>22</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="K3" t="n">
         <v>22</v>
@@ -607,16 +607,16 @@
         <v>1.571428571428571</v>
       </c>
       <c r="M3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>1.642857142857143</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O3" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.607142857142857</v>
+        <v>1.620689655172414</v>
       </c>
     </row>
     <row r="4">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="G4" t="n">
         <v>17</v>
@@ -647,16 +647,16 @@
         <v>1.307692307692308</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1.384615384615385</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>1.307692307692308</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M4" t="n">
         <v>21</v>
@@ -665,10 +665,10 @@
         <v>1.615384615384615</v>
       </c>
       <c r="O4" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.461538461538461</v>
+        <v>1.464285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>14</v>
@@ -690,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>0.75</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="G5" t="n">
         <v>18</v>
@@ -702,13 +702,13 @@
         <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>1.392857142857143</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M5" t="n">
         <v>24</v>
@@ -717,10 +717,10 @@
         <v>1.714285714285714</v>
       </c>
       <c r="O5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.107142857142857</v>
+        <v>1.137931034482759</v>
       </c>
     </row>
     <row r="6">
@@ -730,31 +730,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
-        <v>1.571428571428571</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" t="n">
-        <v>1.642857142857143</v>
+        <v>1.620689655172414</v>
       </c>
       <c r="K6" t="n">
         <v>10</v>
@@ -766,13 +766,13 @@
         <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>25</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.8620689655172413</v>
       </c>
     </row>
     <row r="7">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>15</v>
@@ -794,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="G7" t="n">
         <v>14</v>
@@ -806,13 +806,13 @@
         <v>34</v>
       </c>
       <c r="J7" t="n">
-        <v>1.214285714285714</v>
+        <v>1.172413793103448</v>
       </c>
       <c r="K7" t="n">
         <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.153846153846154</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="M7" t="n">
         <v>23</v>
@@ -824,7 +824,7 @@
         <v>38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.357142857142857</v>
+        <v>1.310344827586207</v>
       </c>
     </row>
     <row r="8">
@@ -886,19 +886,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="G9" t="n">
         <v>17</v>
@@ -907,16 +907,16 @@
         <v>1.214285714285714</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>1.214285714285714</v>
+        <v>1.241379310344828</v>
       </c>
       <c r="K9" t="n">
         <v>18</v>
       </c>
       <c r="L9" t="n">
-        <v>1.285714285714286</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
         <v>24</v>
@@ -928,7 +928,7 @@
         <v>42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.448275862068966</v>
       </c>
     </row>
     <row r="10">
@@ -938,31 +938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I10" t="n">
         <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>1.25</v>
+        <v>1.206896551724138</v>
       </c>
       <c r="K10" t="n">
         <v>10</v>
@@ -971,13 +971,13 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N10" t="n">
-        <v>1.285714285714286</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="O10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="G11" t="n">
         <v>12</v>
@@ -1011,16 +1011,16 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="K11" t="n">
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>1.142857142857143</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="M11" t="n">
         <v>23</v>
@@ -1032,7 +1032,7 @@
         <v>39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.444444444444444</v>
+        <v>1.392857142857143</v>
       </c>
     </row>
     <row r="12">
@@ -1042,31 +1042,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J12" t="n">
-        <v>1.071428571428571</v>
+        <v>1.103448275862069</v>
       </c>
       <c r="K12" t="n">
         <v>19</v>
@@ -1075,16 +1075,16 @@
         <v>1.357142857142857</v>
       </c>
       <c r="M12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>1.642857142857143</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.517241379310345</v>
       </c>
     </row>
     <row r="13">
@@ -1094,31 +1094,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
         <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" t="n">
-        <v>1.692307692307692</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="I13" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J13" t="n">
-        <v>1.592592592592593</v>
+        <v>1.607142857142857</v>
       </c>
       <c r="K13" t="n">
         <v>13</v>
@@ -1130,13 +1130,13 @@
         <v>19</v>
       </c>
       <c r="N13" t="n">
-        <v>1.461538461538461</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="O13" t="n">
         <v>32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.185185185185185</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="14">
@@ -1146,19 +1146,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -1167,16 +1167,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K14" t="n">
         <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M14" t="n">
         <v>18</v>
@@ -1188,7 +1188,7 @@
         <v>30</v>
       </c>
       <c r="P14" t="n">
-        <v>1.111111111111111</v>
+        <v>1.071428571428571</v>
       </c>
     </row>
     <row r="15">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
-        <v>1.321428571428571</v>
+        <v>1.310344827586207</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1231,16 +1231,16 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N15" t="n">
-        <v>1.461538461538461</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="O15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1250,49 +1250,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J16" t="n">
-        <v>1.074074074074074</v>
+        <v>1.137931034482759</v>
       </c>
       <c r="K16" t="n">
+        <v>19</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.266666666666667</v>
+      </c>
+      <c r="M16" t="n">
         <v>18</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>1.285714285714286</v>
       </c>
-      <c r="M16" t="n">
-        <v>16</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.230769230769231</v>
-      </c>
       <c r="O16" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.259259259259259</v>
+        <v>1.275862068965517</v>
       </c>
     </row>
     <row r="17">
@@ -1354,31 +1354,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
         <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>0.75</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="I18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.142857142857143</v>
+        <v>1.137931034482759</v>
       </c>
       <c r="K18" t="n">
         <v>13</v>
@@ -1387,16 +1387,16 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" t="n">
-        <v>1.785714285714286</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="O18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.357142857142857</v>
+        <v>1.344827586206897</v>
       </c>
     </row>
     <row r="19">
@@ -1406,31 +1406,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>1.071428571428571</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="G19" t="n">
         <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>1.230769230769231</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="I19" t="n">
         <v>46</v>
       </c>
       <c r="J19" t="n">
-        <v>1.642857142857143</v>
+        <v>1.586206896551724</v>
       </c>
       <c r="K19" t="n">
         <v>10</v>
@@ -1442,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O19" t="n">
         <v>20</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
     <row r="20">
@@ -1458,31 +1458,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
         <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>1.153846153846154</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="I20" t="n">
         <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>1.357142857142857</v>
+        <v>1.310344827586207</v>
       </c>
       <c r="K20" t="n">
         <v>13</v>
@@ -1491,16 +1491,16 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="M20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
-        <v>1.307692307692308</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="O20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.071428571428571</v>
+        <v>1.103448275862069</v>
       </c>
     </row>
     <row r="21">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
         <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="G21" t="n">
         <v>11</v>
@@ -1531,16 +1531,16 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="I21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>1.148148148148148</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="K21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" t="n">
-        <v>1.384615384615385</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="M21" t="n">
         <v>19</v>
@@ -1549,10 +1549,10 @@
         <v>1.357142857142857</v>
       </c>
       <c r="O21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.37037037037037</v>
+        <v>1.357142857142857</v>
       </c>
     </row>
   </sheetData>
